--- a/template.xlsx
+++ b/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\2020-01-07 excel reader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\2020-01-07_excel_reader\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,37 +24,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조예진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황성철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -408,17 +420,59 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\2020-01-07_excel_reader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gondr\OneDrive\2019\기능대회\전국대회\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_C6EAB52B0162E0C2B4F6CA3868B982FE892AAC18" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{488A88DD-926E-4F21-8B1C-485E455DE215}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="7335" yWindow="2205" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,56 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김민재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연지수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조예진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황성철</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,8 +69,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -180,9 +139,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -215,9 +174,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -396,84 +355,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="3:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
